--- a/2023_1_19假期计划/假期计划.xlsx
+++ b/2023_1_19假期计划/假期计划.xlsx
@@ -4,48 +4,97 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16905" windowHeight="6705"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="假期计划" sheetId="1" r:id="rId1"/>
+    <sheet name="1_19-1_24" sheetId="1" r:id="rId1"/>
+    <sheet name="1_25-1_30" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
   <si>
+    <t>风险把控</t>
+  </si>
+  <si>
+    <t>计划&amp;执行</t>
+  </si>
+  <si>
+    <t>目前面临分享状态</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
     <t>视频学习时长</t>
   </si>
   <si>
+    <t>1.视频学习时长第一日计算时长与实际时长相差2小时，目前总计划时长差距2小时。</t>
+  </si>
+  <si>
+    <t>1.完成3小时视频内容学习</t>
+  </si>
+  <si>
+    <t>1.完成socket编程内容，视频时长在一小时左右。个人成长时长4小时左右，成长倒是具有显著性，剩余29个小时的学习时长，差值位两小时。</t>
+  </si>
+  <si>
+    <t>完成3小时视频内容学习</t>
+  </si>
+  <si>
+    <t>linux体系思维导图</t>
+  </si>
+  <si>
+    <t>1.初版</t>
+  </si>
+  <si>
+    <t>1.完成初版</t>
+  </si>
+  <si>
+    <t>细致化</t>
+  </si>
+  <si>
+    <t>逐个模块分享</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>调试工具</t>
+  </si>
+  <si>
+    <t>发布调试工具</t>
+  </si>
+  <si>
+    <t>地球ol</t>
+  </si>
+  <si>
+    <t>构想都写上</t>
+  </si>
+  <si>
+    <t>1.完成初步构想</t>
+  </si>
+  <si>
+    <t>初版</t>
+  </si>
+  <si>
+    <t>3小时视频内容的学习以及大概掌握</t>
+  </si>
+  <si>
     <t>预留风险日</t>
   </si>
   <si>
-    <t>linux体系思维导图</t>
-  </si>
-  <si>
-    <t>初版</t>
-  </si>
-  <si>
-    <t>细致化</t>
-  </si>
-  <si>
     <t>调试初版</t>
   </si>
   <si>
-    <t>逐个模块分享</t>
-  </si>
-  <si>
-    <t>调试工具</t>
-  </si>
-  <si>
-    <t>发布调试工具</t>
-  </si>
-  <si>
     <t>makefile</t>
   </si>
   <si>
@@ -56,12 +105,6 @@
   </si>
   <si>
     <t>发布shel</t>
-  </si>
-  <si>
-    <t>地球ol</t>
-  </si>
-  <si>
-    <t>构想都写上</t>
   </si>
 </sst>
 </file>
@@ -227,12 +270,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -550,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,16 +623,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,10 +644,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,28 +668,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -637,40 +698,31 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,7 +731,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,19 +743,67 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,198 +1153,477 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="14" width="25.625" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="9" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
         <v>44945</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4">
         <v>44946</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4">
         <v>44947</v>
       </c>
-      <c r="E1" s="2">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4">
         <v>44948</v>
       </c>
-      <c r="F1" s="2">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4">
         <v>44949</v>
       </c>
-      <c r="G1" s="2">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4">
         <v>44950</v>
       </c>
-      <c r="H1" s="2">
-        <v>44951</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44952</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44953</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44954</v>
-      </c>
-      <c r="L1" s="2">
-        <v>44955</v>
-      </c>
-      <c r="M1" s="2">
-        <v>44956</v>
-      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" s="9" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="75" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="14"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="4" s="11" customFormat="1" ht="75" customHeight="1" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="15"/>
     </row>
-    <row r="4" ht="27" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" ht="71" customHeight="1" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="16"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" ht="69" customHeight="1" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:K5"/>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="14" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44951</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4">
+        <v>44952</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4">
+        <v>44953</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4">
+        <v>44954</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4">
+        <v>44955</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4">
+        <v>44956</v>
+      </c>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="75" customHeight="1" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" ht="75" customHeight="1" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" ht="75" customHeight="1" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" ht="75" customHeight="1" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/2023_1_19假期计划/假期计划.xlsx
+++ b/2023_1_19假期计划/假期计划.xlsx
@@ -4,91 +4,121 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="12930" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="1_19-1_24" sheetId="1" r:id="rId1"/>
     <sheet name="1_25-1_30" sheetId="2" r:id="rId2"/>
+    <sheet name="1_31-2_5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="40">
   <si>
     <t>日期</t>
   </si>
   <si>
+    <t>风险&amp;调整</t>
+  </si>
+  <si>
+    <t>计划&amp;执行</t>
+  </si>
+  <si>
+    <t>目前面临分享状态</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>视频学习时长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计划调整，每日完成2小时视频内容学习，以此为依据重新规划，目前调整时间比之前多出一周。
+</t>
+  </si>
+  <si>
+    <t>1.完成3小时视频内容学习</t>
+  </si>
+  <si>
+    <t>1.完成socket编程内容，视频时长在一小时左右。个人成长时长4小时左右，成长倒是具有显著性，剩余29个小时的学习时长，差值位两小时。</t>
+  </si>
+  <si>
+    <t>1.3小时视频内容的学习以及大概掌握,到视屏的被动发起关闭连接。</t>
+  </si>
+  <si>
+    <t>1.执行到多进程并发socket，差值时间大概在1.5小时左右</t>
+  </si>
+  <si>
+    <t>1.完成2小时视频内容学习</t>
+  </si>
+  <si>
+    <t>17:28来验证执行].</t>
+  </si>
+  <si>
+    <t>没有闹市中学习的能力，就自己慢慢的进行学习吧。</t>
+  </si>
+  <si>
+    <t>linux体系思维导图</t>
+  </si>
+  <si>
+    <t>按目前规划执行</t>
+  </si>
+  <si>
+    <t>1.初版</t>
+  </si>
+  <si>
+    <t>1.完成初版</t>
+  </si>
+  <si>
+    <t>细致化</t>
+  </si>
+  <si>
+    <t>细致化执行了sokcet编程部分</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>逐个模块分享</t>
+  </si>
+  <si>
+    <t>从目前各项的执行情况，该计划先延期。后续进行挨个分享，巩固整个知识体系。</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>调试工具</t>
+  </si>
+  <si>
+    <t>发布调试工具</t>
+  </si>
+  <si>
+    <t>地球ol</t>
+  </si>
+  <si>
+    <t>风险：从目前的时间规划上看，对于地球ol的规划难以执行。
+2.个人价值体系的打造这项可以说是所有计划执行中最重要的。</t>
+  </si>
+  <si>
+    <t>构想都写上</t>
+  </si>
+  <si>
+    <t>1.完成初步构想</t>
+  </si>
+  <si>
+    <t>初版</t>
+  </si>
+  <si>
     <t>风险把控</t>
   </si>
   <si>
-    <t>计划&amp;执行</t>
-  </si>
-  <si>
-    <t>目前面临分享状态</t>
-  </si>
-  <si>
-    <t>计划</t>
-  </si>
-  <si>
-    <t>执行</t>
-  </si>
-  <si>
-    <t>视频学习时长</t>
-  </si>
-  <si>
-    <t>1.视频学习时长第一日计算时长与实际时长相差2小时，目前总计划时长差距2小时。</t>
-  </si>
-  <si>
-    <t>1.完成3小时视频内容学习</t>
-  </si>
-  <si>
-    <t>1.完成socket编程内容，视频时长在一小时左右。个人成长时长4小时左右，成长倒是具有显著性，剩余29个小时的学习时长，差值位两小时。</t>
-  </si>
-  <si>
-    <t>完成3小时视频内容学习</t>
-  </si>
-  <si>
-    <t>linux体系思维导图</t>
-  </si>
-  <si>
-    <t>1.初版</t>
-  </si>
-  <si>
-    <t>1.完成初版</t>
-  </si>
-  <si>
-    <t>细致化</t>
-  </si>
-  <si>
-    <t>逐个模块分享</t>
-  </si>
-  <si>
-    <t>暂无</t>
-  </si>
-  <si>
-    <t>调试工具</t>
-  </si>
-  <si>
-    <t>发布调试工具</t>
-  </si>
-  <si>
-    <t>地球ol</t>
-  </si>
-  <si>
-    <t>构想都写上</t>
-  </si>
-  <si>
-    <t>1.完成初步构想</t>
-  </si>
-  <si>
-    <t>初版</t>
-  </si>
-  <si>
-    <t>3小时视频内容的学习以及大概掌握</t>
-  </si>
-  <si>
     <t>预留风险日</t>
   </si>
   <si>
@@ -105,6 +135,9 @@
   </si>
   <si>
     <t>发布shel</t>
+  </si>
+  <si>
+    <t>风险预留日</t>
   </si>
 </sst>
 </file>
@@ -270,18 +303,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -611,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,16 +650,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,52 +671,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -698,16 +725,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,79 +749,64 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1155,235 +1170,253 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="5" customWidth="1"/>
     <col min="3" max="14" width="25.625" customWidth="1"/>
     <col min="15" max="15" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="2">
         <v>44945</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
         <v>44946</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2">
         <v>44947</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2">
         <v>44948</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
         <v>44949</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2">
         <v>44950</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="13"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="9"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="7" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="9"/>
     </row>
-    <row r="3" s="10" customFormat="1" ht="75" customHeight="1" spans="1:15">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="8" customFormat="1" ht="75" customHeight="1" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12">
-        <v>3</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="14"/>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="10"/>
     </row>
-    <row r="4" s="11" customFormat="1" ht="75" customHeight="1" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="15"/>
+    <row r="4" s="7" customFormat="1" ht="75" customHeight="1" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="16"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="12"/>
     </row>
-    <row r="6" ht="69" customHeight="1" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="16"/>
+    <row r="6" ht="90" customHeight="1" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1405,214 +1438,409 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="5" customWidth="1"/>
     <col min="3" max="14" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2">
         <v>44951</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
         <v>44952</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2">
         <v>44953</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2">
         <v>44954</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
         <v>44955</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2">
         <v>44956</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:14">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
-        <v>3</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
-        <v>3</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="7"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="7"/>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="7"/>
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="14" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44945</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
+        <v>44946</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2">
+        <v>44947</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2">
+        <v>44948</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
+        <v>44949</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2">
+        <v>44950</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="65" customHeight="1" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" ht="65" customHeight="1" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" ht="65" customHeight="1" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" ht="65" customHeight="1" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
